--- a/prelim/PPI Info (Bhutan).xlsx
+++ b/prelim/PPI Info (Bhutan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t xml:space="preserve">borders.border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borders</t>
   </si>
   <si>
     <t xml:space="preserve">national</t>
@@ -50651,9 +50654,11 @@
       <c r="C2" t="s">
         <v>151</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
         <v>0.625</v>
@@ -50834,9 +50839,11 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -51015,13 +51022,13 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -51200,13 +51207,13 @@
         <v>150</v>
       </c>
       <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s">
         <v>154</v>
-      </c>
-      <c r="D5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -51385,13 +51392,13 @@
         <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -51570,13 +51577,13 @@
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -51755,13 +51762,13 @@
         <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" t="n">
         <v>0.5</v>
@@ -51940,13 +51947,13 @@
         <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -52125,13 +52132,13 @@
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -52310,13 +52317,13 @@
         <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -52495,13 +52502,13 @@
         <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -52680,13 +52687,13 @@
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -52865,13 +52872,13 @@
         <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -53050,13 +53057,13 @@
         <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -53235,13 +53242,13 @@
         <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -53420,13 +53427,13 @@
         <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -53605,13 +53612,13 @@
         <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -53790,13 +53797,13 @@
         <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -53975,13 +53982,13 @@
         <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -54160,13 +54167,13 @@
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -54345,13 +54352,13 @@
         <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -54530,13 +54537,13 @@
         <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -54715,13 +54722,13 @@
         <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -54900,13 +54907,13 @@
         <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -55085,13 +55092,13 @@
         <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -55270,13 +55277,13 @@
         <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -55455,13 +55462,13 @@
         <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -55640,13 +55647,13 @@
         <v>150</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -55825,13 +55832,13 @@
         <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -56010,13 +56017,13 @@
         <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
